--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2277584.183335506</v>
+        <v>-2282298.094289871</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14711046.74773409</v>
+        <v>14708686.83017241</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>328.1749785290052</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>269.279465909816</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072244</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>2.236264487170892</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>11.61260049965501</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>45.66678843403106</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>311.4852223036525</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>46.13863276595752</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226399</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>2.236264487170892</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>228.3546128802637</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>165.6158245190445</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114.8518234008488</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>59.22992397392562</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>25.4642077999562</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>225.0226593092097</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>166.5430216364787</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>82.92491162465754</v>
@@ -1576,10 +1576,10 @@
         <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1588,13 +1588,13 @@
         <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>168.8953697647851</v>
       </c>
       <c r="X13" t="n">
-        <v>18.66864586607367</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>268.8326339650295</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>101.6188248487976</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>76.33413793532745</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>103.8287858472352</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665139</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,7 +2090,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412925</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
         <v>236.9290753658111</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978639</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,7 +2327,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412925</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
         <v>236.9290753658111</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978639</v>
@@ -2542,7 +2542,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838881</v>
+        <v>24.17382596574971</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828894</v>
+        <v>52.06849973564984</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431726</v>
+        <v>70.57601873167816</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459967</v>
+        <v>55.72314698196057</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643939</v>
+        <v>41.29686219380029</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193185</v>
+        <v>41.2233042466794</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908577</v>
+        <v>42.97275566644667</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147791</v>
+        <v>53.79159358883881</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804995</v>
+        <v>41.14384575541085</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922188</v>
+        <v>18.98356133658278</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736778</v>
+        <v>9.882059701038699</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920511</v>
+        <v>88.00800320656602</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.47204529596588</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="C2" t="n">
-        <v>65.47204529596588</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="D2" t="n">
-        <v>65.47204529596588</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596588</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634771</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L2" t="n">
-        <v>547.1277883310449</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M2" t="n">
-        <v>1085.386573341137</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="N2" t="n">
-        <v>1613.197856978599</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="O2" t="n">
-        <v>2053.237457870928</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678798</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238214</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="U2" t="n">
-        <v>1529.016082672813</v>
+        <v>1652.896053192571</v>
       </c>
       <c r="V2" t="n">
-        <v>1186.909273376331</v>
+        <v>1652.896053192571</v>
       </c>
       <c r="W2" t="n">
-        <v>855.419396074306</v>
+        <v>1281.897018160858</v>
       </c>
       <c r="X2" t="n">
-        <v>465.9667910073628</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="Y2" t="n">
-        <v>465.9667910073628</v>
+        <v>1009.897557645893</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>407.9705203262574</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585114</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="N3" t="n">
-        <v>1498.174658585114</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="O3" t="n">
-        <v>2014.694941176095</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737747</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1719.315119486941</v>
+        <v>534.630189423233</v>
       </c>
       <c r="C4" t="n">
-        <v>1719.315119486941</v>
+        <v>364.4250714892222</v>
       </c>
       <c r="D4" t="n">
-        <v>1719.315119486941</v>
+        <v>208.791958391737</v>
       </c>
       <c r="E4" t="n">
-        <v>1563.756307346144</v>
+        <v>53.23314625093946</v>
       </c>
       <c r="F4" t="n">
-        <v>1406.430372559116</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G4" t="n">
-        <v>1406.430372559116</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H4" t="n">
-        <v>1406.430372559116</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196194</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196194</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306136</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179936</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.5902065182</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549409</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591117</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367696</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737747</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2050.881980370324</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>2050.881980370324</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>2004.75391124504</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>1719.315119486941</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>1719.315119486941</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>1719.315119486941</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>1719.315119486941</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>1719.315119486941</v>
+        <v>719.8382081145343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1618.816809611854</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="C5" t="n">
-        <v>1225.641308114785</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="D5" t="n">
-        <v>840.2001793314525</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>840.2001793314525</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>423.3057408614303</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>414.1833893898375</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>90.10033895632819</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N5" t="n">
-        <v>1578.706865059666</v>
+        <v>2065.661024630534</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678798</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.269414678798</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.269414678798</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="V5" t="n">
-        <v>2008.269414678798</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="W5" t="n">
-        <v>2008.269414678798</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="X5" t="n">
-        <v>1618.816809611854</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.816809611854</v>
+        <v>1647.155266602911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628891</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737768</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>50.78821608954394</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>534.3543019878572</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585114</v>
+        <v>1047.956980597545</v>
       </c>
       <c r="N6" t="n">
-        <v>1498.174658585114</v>
+        <v>1561.559659207233</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356.300145220288</v>
+        <v>367.3414777878345</v>
       </c>
       <c r="C7" t="n">
-        <v>356.300145220288</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="D7" t="n">
-        <v>356.300145220288</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E7" t="n">
-        <v>356.300145220288</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>590.3804674373049</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>590.3804674373049</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>590.3804674373049</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>590.3804674373049</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>356.300145220288</v>
+        <v>775.6615576624924</v>
       </c>
       <c r="Y7" t="n">
-        <v>356.300145220288</v>
+        <v>552.5494964791358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1390.283507231096</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="C8" t="n">
-        <v>997.1080057340262</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506939</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506939</v>
+        <v>937.198370117831</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>520.3039316478088</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>107.1411761358119</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1506.295450060236</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1506.295450060236</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X8" t="n">
-        <v>1506.295450060236</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y8" t="n">
-        <v>1506.295450060236</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>637.5997788648393</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>637.5997788648393</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>403.5194566478224</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1966.681876406338</v>
+        <v>1946.87347999439</v>
       </c>
       <c r="C11" t="n">
-        <v>1645.302650055462</v>
+        <v>1625.494253643513</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572338</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4059029914309</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
+        <v>128.6599694654568</v>
+      </c>
+      <c r="I11" t="n">
         <v>62.11912770411553</v>
       </c>
-      <c r="I11" t="n">
-        <v>62.11912770411573</v>
-      </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2937.731110825494</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W11" t="n">
-        <v>2937.731110825494</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="X11" t="n">
-        <v>2620.074780904745</v>
+        <v>2271.567913927594</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.38034697154</v>
+        <v>1946.87347999439</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420612</v>
+        <v>571.25837199077</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542444</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="D13" t="n">
         <v>472.8495292029531</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083495</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="F13" t="n">
         <v>303.5573325675164</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131558</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208437</v>
@@ -5197,19 +5197,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593279</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1444.627927593279</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1230.985410981373</v>
+        <v>936.0428256245447</v>
       </c>
       <c r="V13" t="n">
-        <v>1036.802340948391</v>
+        <v>741.8597555915628</v>
       </c>
       <c r="W13" t="n">
-        <v>825.268214025763</v>
+        <v>571.25837199077</v>
       </c>
       <c r="X13" t="n">
-        <v>806.4109959792239</v>
+        <v>571.25837199077</v>
       </c>
       <c r="Y13" t="n">
-        <v>655.0952099420612</v>
+        <v>571.25837199077</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1318.972249543668</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C14" t="n">
-        <v>997.5930231927923</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>726.0449080766006</v>
+        <v>828.6901857016487</v>
       </c>
       <c r="E14" t="n">
-        <v>726.0449080766006</v>
+        <v>828.6901857016487</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527722</v>
+        <v>483.5920223778204</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2290.021483962825</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>1972.365154042076</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1647.670720108871</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1521.202330875214</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.0415815981113</v>
+        <v>474.9551552953889</v>
       </c>
       <c r="C16" t="n">
-        <v>290.9363917644472</v>
+        <v>376.5463125075719</v>
       </c>
       <c r="D16" t="n">
-        <v>207.0995538131558</v>
+        <v>292.7094745562806</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0995538131558</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131558</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245448</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915629</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689345</v>
+        <v>855.5285073731728</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981113</v>
+        <v>693.2444603023498</v>
       </c>
       <c r="Y16" t="n">
-        <v>368.0415815981113</v>
+        <v>588.3668988404962</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,19 +5735,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,7 +5768,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5826,25 +5826,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5981,25 +5981,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129449</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404066</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6020,19 +6020,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445264</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>967.2827903862344</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R25" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214272</v>
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,25 +6227,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2546.304425485128</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645896</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6306,22 +6306,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1840.480565683104</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2357.000848274085</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388005</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958356</v>
+        <v>700.0178648958351</v>
       </c>
       <c r="L29" t="n">
         <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848359</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640363</v>
+        <v>292.501909106015</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185684</v>
+        <v>651.4842651334768</v>
       </c>
       <c r="L32" t="n">
-        <v>1219.946389737097</v>
+        <v>1144.804556852006</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508748</v>
+        <v>1690.805456896586</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.03166614621</v>
+        <v>2218.616740534048</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038539</v>
+        <v>2658.656341426377</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038079</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965122</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991866</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237454</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123126</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546502</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431904</v>
+        <v>86.73045008374183</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736109</v>
+        <v>575.8353109291579</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831234</v>
+        <v>759.0249449603672</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600013</v>
+        <v>1033.381832577058</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1264.91011892862</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395509</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000931</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124409</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584488</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1634.317313094942</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7254,19 +7254,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222407</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960405</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343045</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7448,10 +7448,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7567,28 +7567,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7728,19 +7728,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L45" t="n">
-        <v>381.858273766342</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7807,25 +7807,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222409</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960407</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343048</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>501.6975777530043</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>273.0746915508436</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>345.9717522611522</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837486</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>248.7884441745184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
-        <v>213.2436883388545</v>
+        <v>159.1611234709529</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>98.97569223556113</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837486</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O6" t="n">
-        <v>129.6793274559037</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8453,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>633.0344498835105</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>588.303013563887</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,22 +8769,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>546.0917343741362</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9015,10 +9015,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
-        <v>314.1682372053023</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9477,25 +9477,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>546.0917343741362</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,25 +9954,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,10 +10902,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L39" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10917,7 +10917,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>351.8313913012159</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,13 +11376,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>517.3131487114046</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>85.48574579155724</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>101.0644071723061</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866634</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>40.5234158886171</v>
       </c>
       <c r="X13" t="n">
-        <v>141.9925607340411</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>41.67577113573745</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>236.3339907133473</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>21.09061642461126</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>45.97384232955598</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1287770.835103874</v>
+        <v>1286567.739876353</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1287770.835103874</v>
+        <v>1286567.739876353</v>
       </c>
     </row>
     <row r="4">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>18033.21780933569</v>
+      </c>
+      <c r="C2" t="n">
         <v>18033.21780933568</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>18033.21780933568</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15935.90234244006</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15935.90234244006</v>
+      </c>
+      <c r="G2" t="n">
         <v>18033.21780933567</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18033.21780933567</v>
-      </c>
-      <c r="E2" t="n">
-        <v>15935.90234244007</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15935.90234244007</v>
-      </c>
-      <c r="G2" t="n">
-        <v>18033.21780933568</v>
       </c>
       <c r="H2" t="n">
         <v>18033.21780933567</v>
       </c>
       <c r="I2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933566</v>
       </c>
       <c r="J2" t="n">
         <v>18033.21780933564</v>
       </c>
       <c r="K2" t="n">
-        <v>18033.21780933565</v>
+        <v>18033.21780933566</v>
       </c>
       <c r="L2" t="n">
         <v>18033.21780933568</v>
@@ -26350,7 +26350,7 @@
         <v>18033.21780933567</v>
       </c>
       <c r="O2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="P2" t="n">
         <v>18033.21780933568</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539687</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.5244708111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277128</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26433,10 +26433,10 @@
         <v>173460.5839839468</v>
       </c>
       <c r="H4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-441540.9411065569</v>
+        <v>-437189.4952922621</v>
       </c>
       <c r="C6" t="n">
-        <v>-259335.9928147012</v>
+        <v>-263330.8382582071</v>
       </c>
       <c r="D6" t="n">
-        <v>-266504.3138363727</v>
+        <v>-274240.6030597641</v>
       </c>
       <c r="E6" t="n">
-        <v>-275074.3463238096</v>
+        <v>-275284.0778704992</v>
       </c>
       <c r="F6" t="n">
-        <v>-162951.7848497651</v>
+        <v>-163161.5163964546</v>
       </c>
       <c r="G6" t="n">
-        <v>-261022.4610268127</v>
+        <v>-261022.4610268128</v>
       </c>
       <c r="H6" t="n">
-        <v>-213597.1354901307</v>
+        <v>-213597.1354901306</v>
       </c>
       <c r="I6" t="n">
         <v>-213597.1354901307</v>
       </c>
       <c r="J6" t="n">
-        <v>-426639.0530874162</v>
+        <v>-420122.7679328431</v>
       </c>
       <c r="K6" t="n">
         <v>-219836.9038929137</v>
       </c>
       <c r="L6" t="n">
-        <v>-275019.4928275349</v>
+        <v>-279068.3300380072</v>
       </c>
       <c r="M6" t="n">
-        <v>-255797.9649497538</v>
+        <v>-256849.6599609419</v>
       </c>
       <c r="N6" t="n">
         <v>-213597.1354901307</v>
@@ -26695,25 +26695,25 @@
         <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095199</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660693</v>
+        <v>78.07030221924609</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155134</v>
+        <v>17.58004954287419</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407322</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>39.11406615239025</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>116.2786131064577</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758562</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>185.1777423863176</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>144.1400749395018</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27555,7 +27555,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>187.6950728794171</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>70.10149519184642</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>90.81511297250231</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343553</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>185.1777423863176</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>5.007248433184515</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>66.12369447580221</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>281.6379748534341</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>261.6122959552486</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>237.8553439274278</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,22 +28752,22 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>28.01250026485212</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5.636002634529518</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.63600263452949</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>128.2979821082787</v>
       </c>
       <c r="O25" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29299,7 +29299,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
@@ -29308,19 +29308,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="O26" t="n">
-        <v>86.65052755599527</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29472,7 +29472,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901175</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738832995</v>
+        <v>81.10808140893113</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031024</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861253941</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30007,7 +30007,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30171,11 +30171,11 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>5.636002634528609</v>
-      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>5.63600263452858</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,10 +30639,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,10 +30879,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>352.5790864152202</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>122.7732443099184</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>255.911405404234</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>161.7050793552038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
-        <v>63.67985091475811</v>
+        <v>9.597286046856526</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>9.37875690222778</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O6" t="n">
-        <v>36.99176856701484</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>479.7862801530189</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>495.9158915145752</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>460.7196215199696</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35735,10 +35735,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
-        <v>221.4806783164134</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683763</v>
+        <v>216.1858117176441</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724877</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>460.7196215199696</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716083</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,10 +36525,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832375</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039242</v>
       </c>
       <c r="O26" t="n">
-        <v>531.1349729017816</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851013</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907914</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144189</v>
+        <v>227.2189631350201</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537682</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791194</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>264.9671660031022</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029874982</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106683</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873206</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L39" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37637,7 +37637,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133855</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>259.444269251904</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>424.9260266620927</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133878</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
